--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\450_DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5BCDBA-87FF-40CA-9F0F-FECE1BC7D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4C722-03E0-4F14-9FF5-0BE879836F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="467">
   <si>
     <t>Topic:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>29/05/2021</t>
+  </si>
+  <si>
+    <t>30/05/2021</t>
   </si>
 </sst>
 </file>
@@ -1841,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D478"/>
+  <dimension ref="A1:E478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1858,7 @@
     <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,10 +1872,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1885,8 +1888,11 @@
       <c r="D3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,10 +1900,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,10 +1917,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,10 +1934,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1927,10 +1951,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,10 +1968,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,10 +1985,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,10 +2002,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2007,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\450_DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4C722-03E0-4F14-9FF5-0BE879836F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC0CD9E-9021-4BC3-A4E8-B8F80297F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="467">
   <si>
     <t>Topic:</t>
   </si>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E478"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2019,7 +2019,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2</v>
+        <v>464</v>
+      </c>
+      <c r="D11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -7406,5 +7412,6 @@
     <hyperlink ref="B353" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId446"/>
 </worksheet>
 </file>